--- a/Files/RunManager.xlsx
+++ b/Files/RunManager.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="7215" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
   <si>
     <t>Mod_ID</t>
   </si>
@@ -210,9 +210,6 @@
     <t>LV_TC03_WorkFlow_TodaysReport</t>
   </si>
   <si>
-    <t>Verify entry and validation for todays report</t>
-  </si>
-  <si>
     <t>LV_TC04_WorkFlow_MonthlyReport</t>
   </si>
   <si>
@@ -232,6 +229,18 @@
   </si>
   <si>
     <t>Test_DoNotRun</t>
+  </si>
+  <si>
+    <t>Sweety Login Test, 2nd Iteration Can be seleted for Different Browser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deafult Daily Report for 3 dates (3 iterations, for today, 10/11/16 and 10/09/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Report for 3 dates (3 iterations, for today, 10/11/16 and 10/09/16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monthly Report for 3 dates (3 iterations, for today, 10/11/16 and 10/09/16 </t>
   </si>
 </sst>
 </file>
@@ -401,7 +410,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -428,6 +437,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -437,7 +452,17 @@
     <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Normal 4" xfId="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -869,23 +894,23 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -943,18 +968,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.375" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="33.875" bestFit="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="14" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="13.125" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
@@ -968,7 +993,7 @@
     <col min="16" max="22" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
@@ -1014,40 +1039,19 @@
       <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="17" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
+      <c r="C2" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -1070,31 +1074,25 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="2" t="s">
-        <v>66</v>
+    </row>
+    <row r="3" spans="1:15" ht="30">
+      <c r="A3" s="17" t="s">
+        <v>65</v>
       </c>
       <c r="B3" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
+      <c r="C3" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>20</v>
@@ -1117,31 +1115,25 @@
       <c r="M3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:15" ht="30">
+      <c r="A4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="B4" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
+      <c r="C4" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>20</v>
@@ -1164,31 +1156,25 @@
       <c r="M4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="2" t="s">
-        <v>63</v>
+    </row>
+    <row r="5" spans="1:15" ht="30">
+      <c r="A5" s="17" t="s">
+        <v>62</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>41</v>
+      <c r="C5" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>20</v>
@@ -1212,15 +1198,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>64</v>
-      </c>
-      <c r="B6" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>26</v>
@@ -1246,29 +1232,20 @@
       <c r="K6" s="4"/>
       <c r="L6" s="9"/>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" s="12"/>
-      <c r="D7" s="10"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B7:B1048576">
+  <conditionalFormatting sqref="B1 B8:B1048576">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
